--- a/resources/username_password.xlsx
+++ b/resources/username_password.xlsx
@@ -5,16 +5,17 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Clarusway\IdeaProjects\CH5_TestNGProject\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ef8c60c7ecf131d2/Masaüstü/IdeaProjects/TestNGProject/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AE61CD6-26BE-4272-B2A8-81152591E212}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="26" documentId="13_ncr:1_{8AE61CD6-26BE-4272-B2A8-81152591E212}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5D957A22-1FA7-4E88-A29F-12BA24CE1DC3}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
   <si>
     <t>Username</t>
   </si>
@@ -137,13 +138,61 @@
   </si>
   <si>
     <t>In vino veritas.</t>
+  </si>
+  <si>
+    <t>firstname</t>
+  </si>
+  <si>
+    <t>lastname</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>sema</t>
+  </si>
+  <si>
+    <t>sena</t>
+  </si>
+  <si>
+    <t>mhm</t>
+  </si>
+  <si>
+    <t>can</t>
+  </si>
+  <si>
+    <t>oz</t>
+  </si>
+  <si>
+    <t>dem</t>
+  </si>
+  <si>
+    <t>er</t>
+  </si>
+  <si>
+    <t>ir</t>
+  </si>
+  <si>
+    <t>sem@gmail.com</t>
+  </si>
+  <si>
+    <t>sem1@gmail.com</t>
+  </si>
+  <si>
+    <t>sem2@gmail.com</t>
+  </si>
+  <si>
+    <t>sem3@gmail.com</t>
+  </si>
+  <si>
+    <t>email</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -171,6 +220,14 @@
       <name val="Segoe UI"/>
       <family val="2"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -189,10 +246,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -201,8 +259,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Köprü" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -216,6 +276,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -483,18 +547,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -505,7 +569,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="19.2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>24</v>
       </c>
@@ -516,7 +580,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="19.2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>25</v>
       </c>
@@ -527,7 +591,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" ht="19.2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>26</v>
       </c>
@@ -538,7 +602,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" ht="19.2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>27</v>
       </c>
@@ -549,7 +613,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" ht="19.2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>28</v>
       </c>
@@ -560,7 +624,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" ht="19.2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>29</v>
       </c>
@@ -586,9 +650,9 @@
       <selection sqref="A1:B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -596,7 +660,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -604,7 +668,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -612,7 +676,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -620,7 +684,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -628,7 +692,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -636,7 +700,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -644,7 +708,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -652,7 +716,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -660,7 +724,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -668,7 +732,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -680,4 +744,99 @@
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95BC5223-471B-4E21-99DB-DE239BC690F3}">
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="15.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D2">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D3">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D4">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D5">
+        <v>788</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{E836C85D-4536-4974-AF71-C4505092620C}"/>
+    <hyperlink ref="C3:C5" r:id="rId2" display="sem@gmail.com" xr:uid="{6961EF54-F347-43B1-BDB6-5D88C823005B}"/>
+    <hyperlink ref="C3" r:id="rId3" xr:uid="{A7703B61-4478-4B0D-98DE-A8C5799EAB51}"/>
+    <hyperlink ref="C4" r:id="rId4" xr:uid="{7D92416E-E45E-4682-B9C7-DE6CC77331C0}"/>
+    <hyperlink ref="C5" r:id="rId5" xr:uid="{D784060E-9448-41C6-AAA6-4B6AF18EB23B}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>